--- a/data_excel_example_averaged.xlsx
+++ b/data_excel_example_averaged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattsmith/Box/My_Stuff/Python_Codes/mds_pkgs/Data_Fitting-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattsmith/Dropbox (University of Michigan)/from_box/My_Stuff/Python_Codes/mds_pkgs/Data_Fitting-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{664E0901-2928-0B4E-BC43-CF28C442A28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5047B638-D556-914C-A1CB-A82DDD0FA2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="2540" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{76924DD2-6456-9F4C-99F4-1E72ADCC153A}"/>
+    <workbookView xWindow="3420" yWindow="560" windowWidth="25380" windowHeight="17440" activeTab="2" xr2:uid="{76924DD2-6456-9F4C-99F4-1E72ADCC153A}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimental Results" sheetId="2" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:I23"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
